--- a/data/trans_dic/P02E$nadie-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P02E$nadie-Estudios-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8494219183903118</v>
+        <v>0.8478683801482068</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7967344539437172</v>
+        <v>0.8048913285007802</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7964174200385146</v>
+        <v>0.7871513243995616</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8552654809138081</v>
+        <v>0.8530351984799154</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8621621584347926</v>
+        <v>0.8577495427729845</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.845872116445625</v>
+        <v>0.8432419944766866</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8656480519770344</v>
+        <v>0.8689958840062822</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8535896373000557</v>
+        <v>0.8554826383277961</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.8465653662615583</v>
+        <v>0.8466140033051569</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.953498964401316</v>
+        <v>0.9499627205832564</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9089390927321163</v>
+        <v>0.9110690434152804</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9205185466016381</v>
+        <v>0.9141606137789121</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9344806512398589</v>
+        <v>0.9300168644396005</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9245831185845467</v>
+        <v>0.9224336422997687</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9374184234389913</v>
+        <v>0.9346431716262142</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9287225708714446</v>
+        <v>0.9306474614265724</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9100331100815353</v>
+        <v>0.9119895256768876</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9158274514788347</v>
+        <v>0.918858220535623</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9026882872401429</v>
+        <v>0.8998898124856132</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9170865088870581</v>
+        <v>0.9151930333420814</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9002257850339489</v>
+        <v>0.8981779667355446</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.899901441150901</v>
+        <v>0.8997999893118073</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.9138705527009653</v>
+        <v>0.9140846855315935</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.863585222728269</v>
+        <v>0.8604551277988086</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.9092437783662224</v>
+        <v>0.905951303850007</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.9217989601029641</v>
+        <v>0.9215376752554889</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.8857406895254929</v>
+        <v>0.8857888554299966</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9548154697850411</v>
+        <v>0.9532818971247285</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9540598145356884</v>
+        <v>0.9543325754113521</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9494569256477235</v>
+        <v>0.947789940405075</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9448772244174622</v>
+        <v>0.9438172575198579</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9484038843345282</v>
+        <v>0.9461514248198809</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9097654063416922</v>
+        <v>0.9088306059805099</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9433536535470342</v>
+        <v>0.9422753802517447</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9467169609939559</v>
+        <v>0.9454942116834351</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9218284130342886</v>
+        <v>0.9204775135162251</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6931619381755567</v>
+        <v>0.6955814709468864</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8229300342530513</v>
+        <v>0.8186965187342181</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8493017388847892</v>
+        <v>0.8506083187585477</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8725411861293851</v>
+        <v>0.8709746579520746</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8374929479327295</v>
+        <v>0.8376705013760397</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7647929543222969</v>
+        <v>0.7652773881483905</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8181558975365913</v>
+        <v>0.8114949906133208</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8514622429789548</v>
+        <v>0.8453646327734253</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8148662476376189</v>
+        <v>0.8177847985649903</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8434295710405717</v>
+        <v>0.8455930315062682</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9294223828087014</v>
+        <v>0.9312814916294432</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9511570353373866</v>
+        <v>0.9467394881660456</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.957004767370322</v>
+        <v>0.9568027513565276</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9310252444794744</v>
+        <v>0.9248196621372647</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8714472104770725</v>
+        <v>0.8708765486999203</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9007409524492159</v>
+        <v>0.8959616076720733</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.91595477647568</v>
+        <v>0.9169979897159884</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8904691433976085</v>
+        <v>0.8946148029533111</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8710199830183961</v>
+        <v>0.8715370712004039</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8937561289984444</v>
+        <v>0.8932552473715764</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.892595946311195</v>
+        <v>0.8924574854857967</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8983379238570088</v>
+        <v>0.8979296298487783</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9006565311358972</v>
+        <v>0.9013368152973624</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8551426721316193</v>
+        <v>0.855038962951269</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8931998794229092</v>
+        <v>0.8939354388389453</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.9030431913842114</v>
+        <v>0.9039427645897948</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.8773514613798115</v>
+        <v>0.8772016169011621</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9214278025702569</v>
+        <v>0.9215998111948164</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9312007338271933</v>
+        <v>0.9310601158226457</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9331188072319413</v>
+        <v>0.9329841038764023</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9320433876119304</v>
+        <v>0.932868487000294</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9292349408907533</v>
+        <v>0.9306179494005015</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8956175494140323</v>
+        <v>0.8962356298962253</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9238293545873003</v>
+        <v>0.9222774737741575</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9265428848245858</v>
+        <v>0.9266086084127526</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9059273678102945</v>
+        <v>0.905281969002143</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>96223</v>
+        <v>96047</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>144256</v>
+        <v>145733</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>101585</v>
+        <v>100403</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>231889</v>
+        <v>231284</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>334683</v>
+        <v>332970</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>167427</v>
+        <v>166906</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>332765</v>
+        <v>334052</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>485905</v>
+        <v>486983</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>275545</v>
+        <v>275561</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>108012</v>
+        <v>107612</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>164572</v>
+        <v>164957</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>117414</v>
+        <v>116603</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>253367</v>
+        <v>252156</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>358914</v>
+        <v>358080</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>185547</v>
+        <v>184998</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>357012</v>
+        <v>357752</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>518035</v>
+        <v>519149</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>298089</v>
+        <v>299075</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>349051</v>
+        <v>347968</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>573201</v>
+        <v>572018</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>432202</v>
+        <v>431219</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>511454</v>
+        <v>511396</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>826911</v>
+        <v>827105</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>602297</v>
+        <v>600114</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>868349</v>
+        <v>865204</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1410232</v>
+        <v>1409832</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1042997</v>
+        <v>1043054</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>369207</v>
+        <v>368614</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>596310</v>
+        <v>596481</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>455838</v>
+        <v>455038</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>537015</v>
+        <v>536413</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>858159</v>
+        <v>856120</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>634505</v>
+        <v>633853</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>900924</v>
+        <v>899895</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1448353</v>
+        <v>1446482</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1085492</v>
+        <v>1083901</v>
       </c>
     </row>
     <row r="12">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>87501</v>
+        <v>87807</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>145687</v>
+        <v>144938</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>122734</v>
+        <v>122923</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>145136</v>
+        <v>144875</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>187483</v>
+        <v>187523</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>163338</v>
+        <v>163441</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>239369</v>
+        <v>237420</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>341349</v>
+        <v>338904</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>291791</v>
+        <v>292836</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>106470</v>
+        <v>106743</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>164540</v>
+        <v>164869</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>137454</v>
+        <v>136815</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>159185</v>
+        <v>159152</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>208421</v>
+        <v>207032</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>186116</v>
+        <v>185994</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>263531</v>
+        <v>262132</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>367204</v>
+        <v>367622</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>318863</v>
+        <v>320347</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>545427</v>
+        <v>545751</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>878668</v>
+        <v>878175</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>671382</v>
+        <v>671278</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>903559</v>
+        <v>903148</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1366203</v>
+        <v>1367235</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>948305</v>
+        <v>948190</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1457708</v>
+        <v>1458908</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2257622</v>
+        <v>2259870</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1632849</v>
+        <v>1632570</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>576993</v>
+        <v>577100</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>915480</v>
+        <v>915342</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>701862</v>
+        <v>701761</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>937460</v>
+        <v>938290</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1409554</v>
+        <v>1411652</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>993190</v>
+        <v>993875</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1507695</v>
+        <v>1505162</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>2316371</v>
+        <v>2316535</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1686032</v>
+        <v>1684831</v>
       </c>
     </row>
     <row r="20">
